--- a/OMIS/Global/OMIS_Headers.xlsx
+++ b/OMIS/Global/OMIS_Headers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Restricted Share\NSWCR Identified Data\CDC Identified Data\OMIS Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jhreportscomau-my.sharepoint.com/personal/josh_jhreports_com_au/Documents/JHR ONSITE/Git_Scripts/DataConnect/OMIS/Global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F469899D-783D-184D-8E0C-E464788682FD}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="240" windowWidth="21225" windowHeight="15255" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
+    <workbookView xWindow="43720" yWindow="1000" windowWidth="28160" windowHeight="23200" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
   <sheets>
     <sheet name="Short" sheetId="1" r:id="rId1"/>
@@ -3536,9 +3536,6 @@
 Also non- eviq are deafulted to 1570 and Trials 1571.</t>
   </si>
   <si>
-    <t>SystemicTherapyProtocolCycleNumber</t>
-  </si>
-  <si>
     <t>SystemicTherapyCycleStartDate</t>
   </si>
   <si>
@@ -3627,6 +3624,9 @@
   </si>
   <si>
     <t>Header Name</t>
+  </si>
+  <si>
+    <t>NOtificationEpisodeChemoEndDate</t>
   </si>
 </sst>
 </file>
@@ -4053,10 +4053,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4077,7 +4077,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EROD 2.0 vs OMIS Spec 3.4 OHR"/>
@@ -5615,13 +5615,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6139,12 +6139,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7218,23 +7218,23 @@
       <selection pane="bottomLeft" activeCell="A119" sqref="A1:N134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" customWidth="1"/>
-    <col min="11" max="11" width="62.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="54.7109375" customWidth="1"/>
-    <col min="13" max="13" width="98.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="95.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5" customWidth="1"/>
+    <col min="11" max="11" width="62.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" customWidth="1"/>
+    <col min="13" max="13" width="98.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="95.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>199</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="81" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>213</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>228</v>
       </c>
@@ -7480,7 +7480,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>242</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>247</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>251</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="16" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="150" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>264</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="49" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>269</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>269</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>269</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="240.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="257" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="11" customFormat="1" ht="180.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="11" customFormat="1" ht="209" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>303</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="135.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="145" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>307</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="11" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="11" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>311</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>312</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="11" customFormat="1" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>317</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="23.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="11" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>322</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>327</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="65" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>334</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>338</v>
       </c>
@@ -8525,7 +8525,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:14" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="65" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>346</v>
       </c>
@@ -8638,7 +8638,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>350</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="180" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="192" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>362</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="150" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>370</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="90.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="97" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>370</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>378</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="165.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="177" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>387</v>
       </c>
@@ -9081,7 +9081,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:13" s="11" customFormat="1" ht="79.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>388</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>393</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>397</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>397</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="11" customFormat="1" ht="124.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" s="11" customFormat="1" ht="144" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>405</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>409</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="165.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="161" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>414</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="11" customFormat="1" ht="79.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>419</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="165.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="177" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>425</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="11" customFormat="1" ht="79.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>429</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="150.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="161" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>433</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="11" customFormat="1" ht="79.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>437</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="150" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>441</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="105.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="97" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="11" customFormat="1" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" s="11" customFormat="1" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>449</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" ht="79.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" s="11" customFormat="1" ht="79" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>454</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>459</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="19"/>
     </row>
-    <row r="67" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>460</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>463</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="150" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>466</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="105.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="97" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>471</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="11" customFormat="1" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="11" customFormat="1" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
         <v>475</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>480</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="1:14" ht="180.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="193" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>481</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="11" customFormat="1" ht="79.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>485</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="11" customFormat="1" ht="79.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>489</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="120.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="129" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="11" customFormat="1" ht="102" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>496</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>501</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="19"/>
     </row>
-    <row r="79" spans="1:14" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>502</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>504</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="120" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>507</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="60.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="65" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>512</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>516</v>
       </c>
@@ -10408,7 +10408,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="19"/>
     </row>
-    <row r="84" spans="1:14" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>521</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>527</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>531</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="60" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>535</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="165" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="176" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>542</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="75.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="81" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>547</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>552</v>
       </c>
@@ -10786,7 +10786,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="19"/>
     </row>
-    <row r="94" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
         <v>553</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="11" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
         <v>557</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="14" customFormat="1" ht="23.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>561</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="14" customFormat="1" ht="57" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" s="14" customFormat="1" ht="66" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
         <v>565</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="14" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" s="14" customFormat="1" ht="131" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>570</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="14" customFormat="1" ht="68.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" s="14" customFormat="1" ht="79" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>575</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="14" customFormat="1" ht="169.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" s="14" customFormat="1" ht="183" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>579</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="14" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>585</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="14" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
         <v>589</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="14" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
         <v>593</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="14" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
         <v>597</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="14" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
         <v>601</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="14" customFormat="1" ht="102" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
         <v>605</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="14" customFormat="1" ht="102" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
         <v>610</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="14" customFormat="1" ht="102" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
         <v>614</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="14" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
         <v>618</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="14" customFormat="1" ht="102" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
         <v>622</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="14" customFormat="1" ht="102" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
         <v>626</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="11" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
         <v>630</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="11" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
         <v>634</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="11" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
         <v>638</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="11" customFormat="1" ht="113.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" s="11" customFormat="1" ht="131" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
         <v>642</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="11" customFormat="1" ht="102" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
         <v>646</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>650</v>
       </c>
@@ -11727,7 +11727,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="19"/>
     </row>
-    <row r="118" spans="1:14" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -11766,11 +11766,11 @@
       <c r="L118" t="s">
         <v>7</v>
       </c>
-      <c r="N118" s="42" t="s">
+      <c r="N118" s="43" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="165" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>653</v>
       </c>
@@ -11809,9 +11809,9 @@
       <c r="L119" t="s">
         <v>6</v>
       </c>
-      <c r="N119" s="42"/>
-    </row>
-    <row r="120" spans="1:14" ht="75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="N119" s="43"/>
+    </row>
+    <row r="120" spans="1:14" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>656</v>
       </c>
@@ -11850,9 +11850,9 @@
       <c r="L120" t="s">
         <v>5</v>
       </c>
-      <c r="N120" s="42"/>
-    </row>
-    <row r="121" spans="1:14" ht="105" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="N120" s="43"/>
+    </row>
+    <row r="121" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>659</v>
       </c>
@@ -11891,9 +11891,9 @@
       <c r="L121" t="s">
         <v>4</v>
       </c>
-      <c r="N121" s="42"/>
-    </row>
-    <row r="122" spans="1:14" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="N121" s="43"/>
+    </row>
+    <row r="122" spans="1:14" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>663</v>
       </c>
@@ -11932,9 +11932,9 @@
       <c r="L122" t="s">
         <v>3</v>
       </c>
-      <c r="N122" s="42"/>
-    </row>
-    <row r="123" spans="1:14" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="N122" s="43"/>
+    </row>
+    <row r="123" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>666</v>
       </c>
@@ -11973,9 +11973,9 @@
       <c r="L123" t="s">
         <v>669</v>
       </c>
-      <c r="N123" s="42"/>
-    </row>
-    <row r="124" spans="1:14" ht="90" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="N123" s="43"/>
+    </row>
+    <row r="124" spans="1:14" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>670</v>
       </c>
@@ -12014,9 +12014,9 @@
       <c r="L124" t="s">
         <v>1</v>
       </c>
-      <c r="N124" s="42"/>
-    </row>
-    <row r="125" spans="1:14" ht="255.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N124" s="43"/>
+    </row>
+    <row r="125" spans="1:14" ht="273" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>673</v>
       </c>
@@ -12055,9 +12055,9 @@
       <c r="L125" t="s">
         <v>674</v>
       </c>
-      <c r="N125" s="42"/>
-    </row>
-    <row r="126" spans="1:14" s="20" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N125" s="43"/>
+    </row>
+    <row r="126" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>677</v>
       </c>
@@ -12078,7 +12078,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="19"/>
     </row>
-    <row r="127" spans="1:14" s="11" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>678</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="14" customFormat="1" ht="12" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="14" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>684</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="14" customFormat="1" ht="57" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" s="14" customFormat="1" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>688</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="14" customFormat="1" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>693</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="14" customFormat="1" ht="34.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>697</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="14" customFormat="1" ht="45.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>701</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="14" customFormat="1" ht="23.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>705</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="14" customFormat="1" ht="23.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>709</v>
       </c>
@@ -12429,45 +12429,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334282CC-DFA0-48FD-AD80-F17EF0D3CFB1}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>771</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>772</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>774</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="43" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="42" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -12487,10 +12487,10 @@
         <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>215</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -12530,10 +12530,10 @@
         <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -12553,10 +12553,10 @@
         <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>237</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>255</v>
       </c>
@@ -12707,10 +12707,10 @@
         <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -12730,10 +12730,10 @@
         <v>260</v>
       </c>
       <c r="G14" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>264</v>
       </c>
@@ -12753,10 +12753,10 @@
         <v>265</v>
       </c>
       <c r="G15" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>269</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>288</v>
       </c>
@@ -12847,10 +12847,10 @@
         <v>289</v>
       </c>
       <c r="G20" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>293</v>
       </c>
@@ -12870,10 +12870,10 @@
         <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>298</v>
       </c>
@@ -12893,10 +12893,10 @@
         <v>299</v>
       </c>
       <c r="G22" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>303</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -12946,11 +12946,11 @@
       <c r="E25" t="s">
         <v>316</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>317</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -12980,11 +12980,11 @@
       <c r="E27" t="s">
         <v>326</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -13000,14 +13000,14 @@
       <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>328</v>
       </c>
       <c r="G28" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>331</v>
       </c>
@@ -13027,10 +13027,10 @@
         <v>332</v>
       </c>
       <c r="G29" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -13047,10 +13047,10 @@
         <v>335</v>
       </c>
       <c r="G30" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>339</v>
       </c>
@@ -13070,10 +13070,10 @@
         <v>340</v>
       </c>
       <c r="G31" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>339</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>347</v>
       </c>
@@ -13113,10 +13113,10 @@
         <v>348</v>
       </c>
       <c r="G33" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -13132,14 +13132,14 @@
       <c r="E34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>351</v>
       </c>
       <c r="G34" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>350</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>358</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>362</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>366</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>370</v>
       </c>
@@ -13239,10 +13239,10 @@
         <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>370</v>
       </c>
@@ -13256,13 +13256,13 @@
         <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>378</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>383</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>388</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>393</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>397</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>397</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>405</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>410</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>414</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>419</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>425</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>429</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>433</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>437</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>441</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>449</v>
       </c>
@@ -13572,7 +13572,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>454</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>463</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>466</v>
       </c>
@@ -13643,13 +13643,13 @@
         <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>470</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>471</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>475</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>481</v>
       </c>
@@ -13706,10 +13706,10 @@
         <v>482</v>
       </c>
       <c r="G64" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>485</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>489</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>493</v>
       </c>
@@ -13763,10 +13763,10 @@
         <v>494</v>
       </c>
       <c r="G67" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>496</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>502</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>504</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>507</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>512</v>
       </c>
@@ -13863,10 +13863,10 @@
         <v>513</v>
       </c>
       <c r="G72" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>517</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>521</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>524</v>
       </c>
@@ -13920,13 +13920,13 @@
         <v>194</v>
       </c>
       <c r="E75" t="s">
-        <v>526</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>527</v>
       </c>
@@ -13940,13 +13940,13 @@
         <v>197</v>
       </c>
       <c r="E76" t="s">
-        <v>530</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>531</v>
       </c>
@@ -13960,13 +13960,13 @@
         <v>198</v>
       </c>
       <c r="E77" t="s">
-        <v>534</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>535</v>
       </c>
@@ -13980,13 +13980,13 @@
         <v>195</v>
       </c>
       <c r="E78" t="s">
-        <v>538</v>
+        <v>774</v>
       </c>
       <c r="F78" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>539</v>
       </c>
@@ -14000,13 +14000,13 @@
         <v>197</v>
       </c>
       <c r="E79" t="s">
-        <v>541</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>542</v>
       </c>
@@ -14020,13 +14020,13 @@
         <v>197</v>
       </c>
       <c r="E80" t="s">
-        <v>546</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>547</v>
       </c>
@@ -14040,13 +14040,13 @@
         <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>551</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>553</v>
       </c>
@@ -14057,13 +14057,13 @@
         <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>744</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>557</v>
       </c>
@@ -14074,13 +14074,13 @@
         <v>195</v>
       </c>
       <c r="E83" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F83" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>561</v>
       </c>
@@ -14091,13 +14091,13 @@
         <v>195</v>
       </c>
       <c r="E84" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F84" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>565</v>
       </c>
@@ -14108,13 +14108,13 @@
         <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F85" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>570</v>
       </c>
@@ -14125,13 +14125,13 @@
         <v>193</v>
       </c>
       <c r="E86" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F86" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>575</v>
       </c>
@@ -14142,13 +14142,13 @@
         <v>193</v>
       </c>
       <c r="E87" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F87" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>579</v>
       </c>
@@ -14159,13 +14159,13 @@
         <v>193</v>
       </c>
       <c r="E88" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F88" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>585</v>
       </c>
@@ -14176,13 +14176,13 @@
         <v>193</v>
       </c>
       <c r="E89" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F89" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -14193,13 +14193,13 @@
         <v>193</v>
       </c>
       <c r="E90" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F90" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>593</v>
       </c>
@@ -14210,13 +14210,13 @@
         <v>193</v>
       </c>
       <c r="E91" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F91" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>597</v>
       </c>
@@ -14227,13 +14227,13 @@
         <v>193</v>
       </c>
       <c r="E92" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F92" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>601</v>
       </c>
@@ -14244,13 +14244,13 @@
         <v>193</v>
       </c>
       <c r="E93" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F93" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>605</v>
       </c>
@@ -14261,13 +14261,13 @@
         <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F94" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>610</v>
       </c>
@@ -14278,13 +14278,13 @@
         <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F95" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>614</v>
       </c>
@@ -14295,13 +14295,13 @@
         <v>193</v>
       </c>
       <c r="E96" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F96" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>618</v>
       </c>
@@ -14312,13 +14312,13 @@
         <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F97" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>622</v>
       </c>
@@ -14329,13 +14329,13 @@
         <v>193</v>
       </c>
       <c r="E98" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F98" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>626</v>
       </c>
@@ -14346,13 +14346,13 @@
         <v>193</v>
       </c>
       <c r="E99" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F99" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>630</v>
       </c>
@@ -14363,13 +14363,13 @@
         <v>193</v>
       </c>
       <c r="E100" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F100" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>634</v>
       </c>
@@ -14380,13 +14380,13 @@
         <v>193</v>
       </c>
       <c r="E101" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F101" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>638</v>
       </c>
@@ -14397,13 +14397,13 @@
         <v>193</v>
       </c>
       <c r="E102" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F102" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>642</v>
       </c>
@@ -14414,13 +14414,13 @@
         <v>193</v>
       </c>
       <c r="E103" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F103" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>646</v>
       </c>
@@ -14431,13 +14431,13 @@
         <v>193</v>
       </c>
       <c r="E104" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F104" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>334</v>
       </c>
@@ -14453,11 +14453,11 @@
       <c r="E105" t="s">
         <v>7</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>653</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>656</v>
       </c>
@@ -14493,11 +14493,11 @@
       <c r="E107" t="s">
         <v>5</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>659</v>
       </c>
@@ -14513,11 +14513,11 @@
       <c r="E108" t="s">
         <v>4</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>663</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>666</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>670</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>673</v>
       </c>
@@ -14597,10 +14597,10 @@
         <v>674</v>
       </c>
       <c r="G112" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>678</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>684</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>688</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>693</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>697</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>701</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>705</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>709</v>
       </c>

--- a/OMIS/Global/OMIS_Headers.xlsx
+++ b/OMIS/Global/OMIS_Headers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jhreportscomau-my.sharepoint.com/personal/josh_jhreports_com_au/Documents/JHR ONSITE/Git_Scripts/DataConnect/OMIS/Global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F469899D-783D-184D-8E0C-E464788682FD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430F5914-A807-114F-BBC0-C5DB733F8841}"/>
   <bookViews>
     <workbookView xWindow="43720" yWindow="1000" windowWidth="28160" windowHeight="23200" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
@@ -10264,7 +10264,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>504</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -12429,8 +12429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334282CC-DFA0-48FD-AD80-F17EF0D3CFB1}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G120"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12933,7 +12933,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>520</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
         <v>518</v>
@@ -14437,7 +14437,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>334</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>656</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>659</v>
       </c>

--- a/OMIS/Global/OMIS_Headers.xlsx
+++ b/OMIS/Global/OMIS_Headers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jhreportscomau-my.sharepoint.com/personal/josh_jhreports_com_au/Documents/JHR ONSITE/Git_Scripts/DataConnect/OMIS/Global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430F5914-A807-114F-BBC0-C5DB733F8841}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{16EEECB5-2466-454E-AE57-9CEF0F0B2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A57E03-04B1-4F42-BC34-D2BD9C60C327}"/>
   <bookViews>
-    <workbookView xWindow="43720" yWindow="1000" windowWidth="28160" windowHeight="23200" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
+    <workbookView xWindow="22560" yWindow="2020" windowWidth="28160" windowHeight="23200" activeTab="3" xr2:uid="{D94A1CE6-4507-4A65-B0C7-9031AC801546}"/>
   </bookViews>
   <sheets>
     <sheet name="Short" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="776">
   <si>
     <t>PerformanceStatus</t>
   </si>
@@ -3627,6 +3627,9 @@
   </si>
   <si>
     <t>NOtificationEpisodeChemoEndDate</t>
+  </si>
+  <si>
+    <t>SystemicTherapyProtocolCycleNumber</t>
   </si>
 </sst>
 </file>
@@ -7207,15 +7210,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2235E74-9899-4250-8A55-984215EEEF5A}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A51" sqref="A51"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A1:N134"/>
+      <selection pane="bottomLeft" activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -7278,7 +7281,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="81" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>213</v>
       </c>
@@ -7342,7 +7345,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -7459,7 +7462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>228</v>
       </c>
@@ -7480,7 +7483,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>229</v>
       </c>
@@ -7517,7 +7520,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -7631,7 +7634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>242</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>247</v>
       </c>
@@ -7707,7 +7710,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>251</v>
       </c>
@@ -7745,7 +7748,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -7788,7 +7791,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>264</v>
       </c>
@@ -7871,7 +7874,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="49" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>269</v>
       </c>
@@ -7911,7 +7914,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>269</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>269</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>269</v>
       </c>
@@ -8031,7 +8034,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="32" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>288</v>
       </c>
@@ -8074,7 +8077,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>293</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="257" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="256" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="11" customFormat="1" ht="209" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="11" customFormat="1" ht="209" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>303</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="145" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="144" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>307</v>
       </c>
@@ -8246,7 +8249,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="11" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="11" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>311</v>
       </c>
@@ -8267,7 +8270,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:14" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>312</v>
       </c>
@@ -8307,7 +8310,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="11" customFormat="1" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>317</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="11" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="11" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>322</v>
       </c>
@@ -8383,7 +8386,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>327</v>
       </c>
@@ -8426,7 +8429,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="65" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -8466,7 +8469,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>334</v>
       </c>
@@ -8504,7 +8507,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>338</v>
       </c>
@@ -8525,7 +8528,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>339</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="65" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>339</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>346</v>
       </c>
@@ -8638,7 +8641,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>347</v>
       </c>
@@ -8684,7 +8687,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>350</v>
       </c>
@@ -8727,7 +8730,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>350</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="192" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="192" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>358</v>
       </c>
@@ -8810,7 +8813,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>362</v>
       </c>
@@ -8853,7 +8856,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>370</v>
       </c>
@@ -8939,7 +8942,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="97" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>370</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>378</v>
       </c>
@@ -9017,7 +9020,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="177" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="176" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>383</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>387</v>
       </c>
@@ -9081,7 +9084,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:13" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>388</v>
       </c>
@@ -9121,7 +9124,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>393</v>
       </c>
@@ -9161,7 +9164,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>397</v>
       </c>
@@ -9199,7 +9202,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="11" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="11" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>397</v>
       </c>
@@ -9239,7 +9242,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="11" customFormat="1" ht="144" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="11" customFormat="1" ht="144" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>405</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>409</v>
       </c>
@@ -9300,7 +9303,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="19"/>
     </row>
-    <row r="55" spans="1:13" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="161" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>414</v>
       </c>
@@ -9383,7 +9386,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>419</v>
       </c>
@@ -9423,7 +9426,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="177" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="176" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>425</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>429</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="161" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>433</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>437</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>441</v>
       </c>
@@ -9632,7 +9635,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="97" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>446</v>
       </c>
@@ -9672,7 +9675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="11" customFormat="1" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>449</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" ht="79" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="11" customFormat="1" ht="79" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>454</v>
       </c>
@@ -9752,7 +9755,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>459</v>
       </c>
@@ -9773,7 +9776,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="19"/>
     </row>
-    <row r="67" spans="1:14" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>460</v>
       </c>
@@ -9813,7 +9816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>463</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>466</v>
       </c>
@@ -9893,7 +9896,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="97" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>471</v>
       </c>
@@ -9933,7 +9936,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="11" customFormat="1" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="11" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
         <v>475</v>
       </c>
@@ -9973,7 +9976,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>480</v>
       </c>
@@ -9994,7 +9997,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="19"/>
     </row>
-    <row r="73" spans="1:14" ht="193" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="192" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>481</v>
       </c>
@@ -10040,7 +10043,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
         <v>485</v>
       </c>
@@ -10080,7 +10083,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="11" customFormat="1" ht="92" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="11" customFormat="1" ht="92" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
         <v>489</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="129" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="128" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>493</v>
       </c>
@@ -10160,7 +10163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>496</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>501</v>
       </c>
@@ -10221,7 +10224,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="19"/>
     </row>
-    <row r="79" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>502</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>504</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="65" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="64" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>512</v>
       </c>
@@ -10387,7 +10390,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>516</v>
       </c>
@@ -10408,7 +10411,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="19"/>
     </row>
-    <row r="84" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="49" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>517</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>521</v>
       </c>
@@ -10485,7 +10488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -10522,7 +10525,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>527</v>
       </c>
@@ -10565,7 +10568,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>531</v>
       </c>
@@ -10605,7 +10608,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="64" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="65" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>535</v>
       </c>
@@ -10648,7 +10651,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="97" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -10685,7 +10688,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="176" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="177" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>542</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="81" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="81" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>547</v>
       </c>
@@ -10765,7 +10768,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>552</v>
       </c>
@@ -10986,7 +10989,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="14" customFormat="1" ht="79" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="14" customFormat="1" ht="79" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>575</v>
       </c>
@@ -11026,7 +11029,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="14" customFormat="1" ht="183" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="14" customFormat="1" ht="183" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>579</v>
       </c>
@@ -11066,7 +11069,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>585</v>
       </c>
@@ -11106,7 +11109,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="36" t="s">
         <v>589</v>
       </c>
@@ -11146,7 +11149,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="36" t="s">
         <v>593</v>
       </c>
@@ -11186,7 +11189,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
         <v>597</v>
       </c>
@@ -11226,7 +11229,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36" t="s">
         <v>601</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36" t="s">
         <v>605</v>
       </c>
@@ -11306,7 +11309,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
         <v>610</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36" t="s">
         <v>614</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36" t="s">
         <v>618</v>
       </c>
@@ -11426,7 +11429,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36" t="s">
         <v>622</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="14" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" s="14" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36" t="s">
         <v>626</v>
       </c>
@@ -11506,7 +11509,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36" t="s">
         <v>630</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36" t="s">
         <v>634</v>
       </c>
@@ -11586,7 +11589,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="36" t="s">
         <v>638</v>
       </c>
@@ -11626,7 +11629,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="11" customFormat="1" ht="131" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="11" customFormat="1" ht="131" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="36" t="s">
         <v>642</v>
       </c>
@@ -11666,7 +11669,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="11" customFormat="1" ht="118" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="11" customFormat="1" ht="118" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
         <v>646</v>
       </c>
@@ -11706,7 +11709,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>650</v>
       </c>
@@ -11727,7 +11730,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="19"/>
     </row>
-    <row r="118" spans="1:14" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -11770,7 +11773,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="160" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="160" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>653</v>
       </c>
@@ -11811,7 +11814,7 @@
       </c>
       <c r="N119" s="43"/>
     </row>
-    <row r="120" spans="1:14" ht="80" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="80" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>656</v>
       </c>
@@ -11852,7 +11855,7 @@
       </c>
       <c r="N120" s="43"/>
     </row>
-    <row r="121" spans="1:14" ht="112" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="112" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>659</v>
       </c>
@@ -11893,7 +11896,7 @@
       </c>
       <c r="N121" s="43"/>
     </row>
-    <row r="122" spans="1:14" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>663</v>
       </c>
@@ -11934,7 +11937,7 @@
       </c>
       <c r="N122" s="43"/>
     </row>
-    <row r="123" spans="1:14" ht="48" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="48" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>666</v>
       </c>
@@ -11975,7 +11978,7 @@
       </c>
       <c r="N123" s="43"/>
     </row>
-    <row r="124" spans="1:14" ht="96" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="96" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>670</v>
       </c>
@@ -12016,7 +12019,7 @@
       </c>
       <c r="N124" s="43"/>
     </row>
-    <row r="125" spans="1:14" ht="273" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="272" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>673</v>
       </c>
@@ -12057,7 +12060,7 @@
       </c>
       <c r="N125" s="43"/>
     </row>
-    <row r="126" spans="1:14" s="20" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="20" customFormat="1" ht="13" hidden="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>677</v>
       </c>
@@ -12078,7 +12081,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="19"/>
     </row>
-    <row r="127" spans="1:14" s="11" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="11" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>678</v>
       </c>
@@ -12118,7 +12121,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="14" customFormat="1" ht="14" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="14" customFormat="1" ht="14" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>684</v>
       </c>
@@ -12158,7 +12161,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="14" customFormat="1" ht="53" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="14" customFormat="1" ht="53" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>688</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>693</v>
       </c>
@@ -12238,7 +12241,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>697</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="14" customFormat="1" ht="40" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" s="14" customFormat="1" ht="40" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
         <v>701</v>
       </c>
@@ -12318,7 +12321,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
         <v>705</v>
       </c>
@@ -12358,7 +12361,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="14" customFormat="1" ht="27" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="14" customFormat="1" ht="27" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
         <v>709</v>
       </c>
@@ -12398,8 +12401,21 @@
         <v>712</v>
       </c>
     </row>
+    <row r="135" spans="1:12" collapsed="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:L134" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L134" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Cycle End Date"/>
+        <filter val="Cycle number"/>
+        <filter val="Cycle Start Date"/>
+        <filter val="Reason for variation of frequency of treatment cycle"/>
+        <filter val="Systemic Therapy Cycle Number"/>
+        <filter val="Systemic Therapy Number of Cycles"/>
+        <filter val="Variation of frequency of treatment cycle Indicator"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="N118:N125"/>
   </mergeCells>
@@ -12430,7 +12446,7 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14057,7 +14073,7 @@
         <v>197</v>
       </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>775</v>
       </c>
       <c r="F82" t="s">
         <v>554</v>
